--- a/Accounts-Schedules/تدريب طلبات 2-6-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 2-6-2025 تجمع.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="225">
   <si>
     <t>Hello team, </t>
   </si>
@@ -957,7 +957,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1075,12 +1075,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,70 +1485,70 @@
     <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2735,7 +2729,7 @@
     <row r="5" ht="16.25" spans="1:1">
       <c r="A5" s="25"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" ht="15.25" spans="1:3">
       <c r="A6" s="26" t="s">
         <v>59</v>
       </c>
@@ -2746,7 +2740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="15.25" spans="1:3">
       <c r="A7" s="28" t="s">
         <v>60</v>
       </c>
@@ -2757,7 +2751,7 @@
         <v>1003111657</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="15.25" spans="1:3">
       <c r="A8" s="28" t="s">
         <v>62</v>
       </c>
@@ -2768,7 +2762,7 @@
         <v>1063853315</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="15.25" spans="1:3">
       <c r="A9" s="22" t="s">
         <v>64</v>
       </c>
@@ -2779,7 +2773,7 @@
         <v>1004065451</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="15.25" spans="1:3">
       <c r="A10" s="22" t="s">
         <v>66</v>
       </c>
@@ -2790,7 +2784,7 @@
         <v>1128562064</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="15.25" spans="1:3">
       <c r="A11" s="28" t="s">
         <v>68</v>
       </c>
@@ -2801,7 +2795,7 @@
         <v>1150177584</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="15.25" spans="1:3">
       <c r="A12" s="28" t="s">
         <v>70</v>
       </c>
@@ -2812,7 +2806,7 @@
         <v>1000663107</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="15.25" spans="1:3">
       <c r="A13" s="28" t="s">
         <v>72</v>
       </c>
@@ -2823,7 +2817,7 @@
         <v>1278825213</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="15.25" spans="1:3">
       <c r="A14" s="22" t="s">
         <v>74</v>
       </c>
@@ -2834,7 +2828,7 @@
         <v>1062098602</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="15.25" spans="1:3">
       <c r="A15" s="28" t="s">
         <v>76</v>
       </c>
@@ -2845,7 +2839,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" ht="15.25" spans="1:3">
       <c r="A16" s="22" t="s">
         <v>79</v>
       </c>
@@ -2856,7 +2850,7 @@
         <v>1155313770</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="15.25" spans="1:3">
       <c r="A17" s="22" t="s">
         <v>81</v>
       </c>
@@ -2867,7 +2861,7 @@
         <v>1021824170</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" ht="15.25" spans="1:3">
       <c r="A18" s="28" t="s">
         <v>81</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v>1158249339</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="15.25" spans="1:3">
       <c r="A19" s="22" t="s">
         <v>84</v>
       </c>
@@ -2889,7 +2883,7 @@
         <v>1111476774</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" ht="15.25" spans="1:3">
       <c r="A20" s="22" t="s">
         <v>86</v>
       </c>
@@ -2900,7 +2894,7 @@
         <v>1004775419</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" ht="15.25" spans="1:3">
       <c r="A21" s="28" t="s">
         <v>88</v>
       </c>
@@ -2920,7 +2914,7 @@
         <v>1021661613</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" ht="15.25" spans="1:3">
       <c r="A23" s="22" t="s">
         <v>91</v>
       </c>
@@ -2967,7 +2961,7 @@
         <v>1027610163</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" ht="15.25" spans="1:3">
       <c r="A28" s="22" t="s">
         <v>64</v>
       </c>
@@ -2978,7 +2972,7 @@
         <v>1065353669</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="15.25" spans="1:3">
       <c r="A29" s="22" t="s">
         <v>66</v>
       </c>
@@ -2989,7 +2983,7 @@
         <v>1015843833</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" ht="15.25" spans="1:3">
       <c r="A30" s="22" t="s">
         <v>99</v>
       </c>
@@ -3000,7 +2994,7 @@
         <v>1117915599</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" ht="15.25" spans="1:3">
       <c r="A31" s="22" t="s">
         <v>101</v>
       </c>
@@ -3011,7 +3005,7 @@
         <v>1064620013</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" ht="15.25" spans="1:3">
       <c r="A32" s="28" t="s">
         <v>103</v>
       </c>
@@ -3022,7 +3016,7 @@
         <v>1550014921</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" ht="15.25" spans="1:3">
       <c r="A33" s="28" t="s">
         <v>105</v>
       </c>
@@ -3033,7 +3027,7 @@
         <v>1065673340</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" ht="15.25" spans="1:3">
       <c r="A34" s="22" t="s">
         <v>107</v>
       </c>
@@ -3044,7 +3038,7 @@
         <v>1143344843</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" ht="15.25" spans="1:3">
       <c r="A35" s="22" t="s">
         <v>109</v>
       </c>
@@ -3055,7 +3049,7 @@
         <v>1158931963</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" ht="15.25" spans="1:3">
       <c r="A36" s="32" t="s">
         <v>111</v>
       </c>
@@ -3359,7 +3353,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" ht="50" spans="1:5">
+    <row r="16" ht="50.75" spans="1:5">
       <c r="A16" s="22" t="s">
         <v>89</v>
       </c>
@@ -3376,7 +3370,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" ht="50" spans="1:5">
+    <row r="17" ht="50.75" spans="1:5">
       <c r="A17" s="22" t="s">
         <v>90</v>
       </c>
@@ -3508,7 +3502,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" ht="50" spans="1:5">
+    <row r="25" ht="50.75" spans="1:5">
       <c r="A25" s="22" t="s">
         <v>100</v>
       </c>
@@ -3627,7 +3621,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" ht="50" spans="1:5">
+    <row r="32" ht="50.75" spans="1:5">
       <c r="A32" s="22" t="s">
         <v>113</v>
       </c>
@@ -3670,10 +3664,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:G74"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5085,6 +5079,22 @@
       </c>
       <c r="G74" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77">
+        <v>10334031</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78">
+        <v>10333973</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/تدريب طلبات 2-6-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 2-6-2025 تجمع.xlsx
@@ -4,19 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7510" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="شيت 3" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="شيت 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'شيت 3'!$A$3:$G$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'شيت 3'!$A$3:$G$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,143 +33,332 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="177">
   <si>
     <t>Hello team, </t>
   </si>
   <si>
-    <t>Below is the list of trainees scheduled for training at Talabat (Telesales) on Monday, June 2nd, from 10 AM to 6 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
+    <t>Below is the list of trainees scheduled for training at Airalo on Monday, June 2nd, from 10 AM to 6 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
   <si>
     <t>Please note that this will be in New Cairo.</t>
   </si>
   <si>
+    <t>Address</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Adham Taky</t>
-  </si>
-  <si>
-    <t>Adhamtaky321@gmail.com</t>
-  </si>
-  <si>
-    <t>Youssef Fouad</t>
-  </si>
-  <si>
-    <t>youssef.fouad@transcom.com</t>
-  </si>
-  <si>
-    <t>Yasmin Zakaria</t>
-  </si>
-  <si>
-    <t>yasmeenzakaria2020@gmail.com</t>
-  </si>
-  <si>
-    <t>Momen Medhat</t>
-  </si>
-  <si>
-    <t>momenmedhat293@gmail.com</t>
-  </si>
-  <si>
-    <t>Ahmed Abdelaziz</t>
-  </si>
-  <si>
-    <t>acc.ahmedabdelaziz1988@gmail.com</t>
-  </si>
-  <si>
-    <t>Omar Hany</t>
-  </si>
-  <si>
-    <t>mero.adam81@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mahmoud mostafa</t>
-  </si>
-  <si>
-    <t>mahmouud.pardis@gmail.com</t>
-  </si>
-  <si>
-    <t>Noureldin ibrahim</t>
-  </si>
-  <si>
-    <t>1146697451-1070819036</t>
-  </si>
-  <si>
-    <t>noureldin.ibrahim@transcom.com</t>
-  </si>
-  <si>
-    <t>Adam Asser</t>
-  </si>
-  <si>
-    <t>adamasiryassin@gmail.com</t>
-  </si>
-  <si>
-    <t>Update the below:</t>
-  </si>
-  <si>
-    <t>Route</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>Have car</t>
-  </si>
-  <si>
-    <t>No need</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>البوابة الاولي</t>
-  </si>
-  <si>
-    <t>جسر السويس</t>
-  </si>
-  <si>
-    <t>المحكمة</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>ميدان حدائق القبه</t>
-  </si>
-  <si>
-    <t>الدائري</t>
-  </si>
-  <si>
-    <t>نزلة المرج</t>
-  </si>
-  <si>
-    <t>What's App</t>
-  </si>
-  <si>
-    <t>العباسيه</t>
-  </si>
-  <si>
-    <t>معرض علاء الدين</t>
-  </si>
-  <si>
-    <t>Talabat</t>
-  </si>
-  <si>
-    <t>(Telesales)</t>
+    <t>Shobra Elkheima</t>
+  </si>
+  <si>
+    <t>Mohamed Salah</t>
+  </si>
+  <si>
+    <t>Obour</t>
+  </si>
+  <si>
+    <t>Abdelrhman khaled darwish</t>
+  </si>
+  <si>
+    <t>Maadi</t>
+  </si>
+  <si>
+    <t>Eman Adel</t>
+  </si>
+  <si>
+    <t>Haram</t>
+  </si>
+  <si>
+    <t>Mohamed Elbalshy</t>
+  </si>
+  <si>
+    <t>Zahraa madinet nasr</t>
+  </si>
+  <si>
+    <t>Ramez Tarek Rashad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asr el qobba </t>
+  </si>
+  <si>
+    <t>Shady Mohamed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shobra </t>
+  </si>
+  <si>
+    <t>Marina Emad</t>
+  </si>
+  <si>
+    <t>Wadi Hof</t>
+  </si>
+  <si>
+    <t>Muhammed Sayed Tahaa</t>
+  </si>
+  <si>
+    <t>Salam</t>
+  </si>
+  <si>
+    <t>Omer Abdo</t>
+  </si>
+  <si>
+    <t>1155655266 / 1032140144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoubra </t>
+  </si>
+  <si>
+    <t>Ziad Abdelhamid</t>
+  </si>
+  <si>
+    <t>Matareya</t>
+  </si>
+  <si>
+    <t>Mohamed Sherif</t>
+  </si>
+  <si>
+    <t>Mostafa Mahmoud</t>
+  </si>
+  <si>
+    <t>Helmya el gedida</t>
+  </si>
+  <si>
+    <t>Passant Saber</t>
+  </si>
+  <si>
+    <t>Gesr el suez</t>
+  </si>
+  <si>
+    <t>Loushan Yahia</t>
+  </si>
+  <si>
+    <t>Sheikh Zayed</t>
+  </si>
+  <si>
+    <t>Abd Al Rahman Mohamed Ashour</t>
+  </si>
+  <si>
+    <t>Omar Ahmed Mohamed Abady</t>
+  </si>
+  <si>
+    <t>Madinet Nasr</t>
+  </si>
+  <si>
+    <t>Ahmed Rashed</t>
+  </si>
+  <si>
+    <t>Mohammed Farag</t>
+  </si>
+  <si>
+    <t>Mahmoud Abd Elaziz Mohamed</t>
+  </si>
+  <si>
+    <t>Sherif Elbehairy</t>
+  </si>
+  <si>
+    <t>Abdelrahman Mohamed</t>
+  </si>
+  <si>
+    <t>Mostafa El-Garnosy</t>
+  </si>
+  <si>
+    <t>Shady Adel</t>
+  </si>
+  <si>
+    <t>Faisal</t>
+  </si>
+  <si>
+    <t>Yahia Ahmed Mohamed Teleb</t>
+  </si>
+  <si>
+    <t>Zahraa Maadi</t>
+  </si>
+  <si>
+    <t>Asmaa Ayman</t>
+  </si>
+  <si>
+    <t>Ain shams</t>
+  </si>
+  <si>
+    <t>Mohamed Anwar El Sayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagamo3 </t>
+  </si>
+  <si>
+    <t>Mahmoud Metwally</t>
+  </si>
+  <si>
+    <t>Shobra elkheima</t>
+  </si>
+  <si>
+    <t>Ahmed Elkholy</t>
+  </si>
+  <si>
+    <t>Fasiel</t>
+  </si>
+  <si>
+    <t>Hagar Adel</t>
+  </si>
+  <si>
+    <t>New Cairo-el tagamo el khames</t>
+  </si>
+  <si>
+    <t>Ali Hossam</t>
+  </si>
+  <si>
+    <t>Abdelrahman Sayed Abdelradi</t>
+  </si>
+  <si>
+    <t>Sohila ahmed</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Pick up point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He Will confirm Tommorow </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Has been added to Whatsapp group</t>
+  </si>
+  <si>
+    <t>العبور - دائري</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>معادي كورنيش</t>
+  </si>
+  <si>
+    <t>المحكمة الدستورية</t>
+  </si>
+  <si>
+    <t>قليوب</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>كشري هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>روكسي - صيدلية التحرير</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>الخلفاوي</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>مدخل حلوان الاتوستراد</t>
+  </si>
+  <si>
+    <t>السلام</t>
+  </si>
+  <si>
+    <t>التوحيد والنور</t>
+  </si>
+  <si>
+    <t>ميدان ابن الحكم</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>مستشفى احمد ماهر</t>
+  </si>
+  <si>
+    <t>Message was sent on whats app</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>هايبر</t>
+  </si>
+  <si>
+    <t>م - الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>بوابة 6</t>
+  </si>
+  <si>
+    <t>اكاديمية السادات</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>مريوطية</t>
+  </si>
+  <si>
+    <t>الطالبية</t>
+  </si>
+  <si>
+    <t>التوحيد و النور</t>
+  </si>
+  <si>
+    <t>ميدان الف مسكن</t>
+  </si>
+  <si>
+    <t>Near the site / dosen't need transportation</t>
+  </si>
+  <si>
+    <t>الابيض اول فيصل</t>
+  </si>
+  <si>
+    <t>الجزيرة</t>
+  </si>
+  <si>
+    <t>الجراج</t>
+  </si>
+  <si>
+    <t>صالح صبحي</t>
+  </si>
+  <si>
+    <t>Airalo</t>
   </si>
   <si>
     <t>الاثنين من 10 ص ل 6 م</t>
   </si>
   <si>
+    <t>Supposed to be Talabat</t>
+  </si>
+  <si>
+    <t>بدية الشفت</t>
+  </si>
+  <si>
+    <t>نهاية الشفت</t>
+  </si>
+  <si>
     <t>الهاتف</t>
   </si>
   <si>
+    <t>Transcom ID</t>
+  </si>
+  <si>
     <t>الموظف</t>
   </si>
   <si>
@@ -180,339 +366,6 @@
   </si>
   <si>
     <t>النقطة</t>
-  </si>
-  <si>
-    <t>احمد عبد العزيز</t>
-  </si>
-  <si>
-    <t>ياسمين زكريا</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>نورالدين ابراهيم</t>
-  </si>
-  <si>
-    <t>يوسف فؤاد</t>
-  </si>
-  <si>
-    <t>مؤمن مدحت</t>
-  </si>
-  <si>
-    <t>أدهم تاكي</t>
-  </si>
-  <si>
-    <t>عمر هاني</t>
-  </si>
-  <si>
-    <t>محمود مصطفى</t>
-  </si>
-  <si>
-    <t>آدم آسر</t>
-  </si>
-  <si>
-    <t>Below is the list of trainees scheduled for training at Airalo on Monday, June 2nd, from 10 AM to 6 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Shobra Elkheima</t>
-  </si>
-  <si>
-    <t>Mohamed Salah</t>
-  </si>
-  <si>
-    <t>Obour</t>
-  </si>
-  <si>
-    <t>Abdelrhman khaled darwish</t>
-  </si>
-  <si>
-    <t>Maadi</t>
-  </si>
-  <si>
-    <t>Eman Adel</t>
-  </si>
-  <si>
-    <t>Haram</t>
-  </si>
-  <si>
-    <t>Mohamed Elbalshy</t>
-  </si>
-  <si>
-    <t>Zahraa madinet nasr</t>
-  </si>
-  <si>
-    <t>Ramez Tarek Rashad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asr el qobba </t>
-  </si>
-  <si>
-    <t>Shady Mohamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shobra </t>
-  </si>
-  <si>
-    <t>Marina Emad</t>
-  </si>
-  <si>
-    <t>Wadi Hof</t>
-  </si>
-  <si>
-    <t>Muhammed Sayed Tahaa</t>
-  </si>
-  <si>
-    <t>Salam</t>
-  </si>
-  <si>
-    <t>Omer Abdo</t>
-  </si>
-  <si>
-    <t>1155655266 / 1032140144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoubra </t>
-  </si>
-  <si>
-    <t>Ziad Abdelhamid</t>
-  </si>
-  <si>
-    <t>Matareya</t>
-  </si>
-  <si>
-    <t>Mohamed Sherif</t>
-  </si>
-  <si>
-    <t>Mostafa Mahmoud</t>
-  </si>
-  <si>
-    <t>Helmya el gedida</t>
-  </si>
-  <si>
-    <t>Passant Saber</t>
-  </si>
-  <si>
-    <t>Gesr el suez</t>
-  </si>
-  <si>
-    <t>Loushan Yahia</t>
-  </si>
-  <si>
-    <t>Sheikh Zayed</t>
-  </si>
-  <si>
-    <t>Abd Al Rahman Mohamed Ashour</t>
-  </si>
-  <si>
-    <t>Omar Ahmed Mohamed Abady</t>
-  </si>
-  <si>
-    <t>Madinet Nasr</t>
-  </si>
-  <si>
-    <t>Ahmed Rashed</t>
-  </si>
-  <si>
-    <t>Mohammed Farag</t>
-  </si>
-  <si>
-    <t>Mahmoud Abd Elaziz Mohamed</t>
-  </si>
-  <si>
-    <t>Sherif Elbehairy</t>
-  </si>
-  <si>
-    <t>Abdelrahman Mohamed</t>
-  </si>
-  <si>
-    <t>Mostafa El-Garnosy</t>
-  </si>
-  <si>
-    <t>Shady Adel</t>
-  </si>
-  <si>
-    <t>Faisal</t>
-  </si>
-  <si>
-    <t>Yahia Ahmed Mohamed Teleb</t>
-  </si>
-  <si>
-    <t>Zahraa Maadi</t>
-  </si>
-  <si>
-    <t>Asmaa Ayman</t>
-  </si>
-  <si>
-    <t>Ain shams</t>
-  </si>
-  <si>
-    <t>Mohamed Anwar El Sayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tagamo3 </t>
-  </si>
-  <si>
-    <t>Mahmoud Metwally</t>
-  </si>
-  <si>
-    <t>Shobra elkheima</t>
-  </si>
-  <si>
-    <t>Ahmed Elkholy</t>
-  </si>
-  <si>
-    <t>Fasiel</t>
-  </si>
-  <si>
-    <t>Hagar Adel</t>
-  </si>
-  <si>
-    <t>New Cairo-el tagamo el khames</t>
-  </si>
-  <si>
-    <t>Ali Hossam</t>
-  </si>
-  <si>
-    <t>Abdelrahman Sayed Abdelradi</t>
-  </si>
-  <si>
-    <t>Sohila ahmed</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Pick up point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He Will confirm Tommorow </t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Has been added to Whatsapp group</t>
-  </si>
-  <si>
-    <t>العبور - دائري</t>
-  </si>
-  <si>
-    <t>كارفور العبور</t>
-  </si>
-  <si>
-    <t>معادي كورنيش</t>
-  </si>
-  <si>
-    <t>المحكمة الدستورية</t>
-  </si>
-  <si>
-    <t>قليوب</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>كشري هند الحي العاشر</t>
-  </si>
-  <si>
-    <t>روكسي - صيدلية التحرير</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>الخلفاوي</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>مدخل حلوان الاتوستراد</t>
-  </si>
-  <si>
-    <t>السلام</t>
-  </si>
-  <si>
-    <t>التوحيد والنور</t>
-  </si>
-  <si>
-    <t>ميدان ابن الحكم</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>مستشفى احمد ماهر</t>
-  </si>
-  <si>
-    <t>Message was sent on whats app</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>هايبر</t>
-  </si>
-  <si>
-    <t>م - الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>بوابة 6</t>
-  </si>
-  <si>
-    <t>اكاديمية السادات</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>مريوطية</t>
-  </si>
-  <si>
-    <t>الطالبية</t>
-  </si>
-  <si>
-    <t>التوحيد و النور</t>
-  </si>
-  <si>
-    <t>ميدان الف مسكن</t>
-  </si>
-  <si>
-    <t>Near the site / dosen't need transportation</t>
-  </si>
-  <si>
-    <t>الابيض اول فيصل</t>
-  </si>
-  <si>
-    <t>الجزيرة</t>
-  </si>
-  <si>
-    <t>الجراج</t>
-  </si>
-  <si>
-    <t>صالح صبحي</t>
-  </si>
-  <si>
-    <t>Airalo</t>
-  </si>
-  <si>
-    <t>Supposed to be Talabat</t>
-  </si>
-  <si>
-    <t>بدية الشفت</t>
-  </si>
-  <si>
-    <t>نهاية الشفت</t>
-  </si>
-  <si>
-    <t>Transcom ID</t>
   </si>
   <si>
     <t>Training</t>
@@ -717,16 +570,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="00000000000"/>
-    <numFmt numFmtId="180" formatCode="00000000000\-"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,30 +647,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -957,7 +791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1015,12 +849,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,135 +1252,135 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1644,38 +1472,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1996,708 +1792,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="25"/>
-    </row>
-    <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="16.25" spans="1:1">
-      <c r="A4" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="26.75" spans="1:3">
-      <c r="A5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" ht="44.25" spans="1:3">
-      <c r="A6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="23">
-        <v>1099700773</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="58.75" spans="1:3">
-      <c r="A7" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="40">
-        <v>1220100184</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="58.75" spans="1:3">
-      <c r="A8" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="40">
-        <v>1003846231</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="58.75" spans="1:3">
-      <c r="A9" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="40">
-        <v>1123940404</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" ht="58.75" spans="1:3">
-      <c r="A10" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="40">
-        <v>1140040830</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="44.25" spans="1:3">
-      <c r="A11" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="40">
-        <v>1118664021</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="58.75" spans="1:3">
-      <c r="A12" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="40">
-        <v>1006491956</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="50.75" spans="1:3">
-      <c r="A13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="44.25" spans="1:3">
-      <c r="A14" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="23">
-        <v>1010432422</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="Adhamtaky321@gmail.com"/>
-    <hyperlink ref="C7" r:id="rId2" display="youssef.fouad@transcom.com"/>
-    <hyperlink ref="C8" r:id="rId3" display="yasmeenzakaria2020@gmail.com"/>
-    <hyperlink ref="C9" r:id="rId4" display="momenmedhat293@gmail.com"/>
-    <hyperlink ref="C10" r:id="rId5" display="acc.ahmedabdelaziz1988@gmail.com"/>
-    <hyperlink ref="C11" r:id="rId6" display="mero.adam81@yahoo.com"/>
-    <hyperlink ref="C12" r:id="rId7" display="mahmouud.pardis@gmail.com"/>
-    <hyperlink ref="C14" r:id="rId8" display="adamasiryassin@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" ht="16.25" spans="1:1">
-      <c r="A2" s="36"/>
-    </row>
-    <row r="3" ht="15.25" spans="1:4">
-      <c r="A3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" ht="25.75" spans="1:4">
-      <c r="A4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="40">
-        <v>1099700773</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="25.75" spans="1:4">
-      <c r="A5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="40">
-        <v>1220100184</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="25.75" spans="1:4">
-      <c r="A6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="40">
-        <v>1003846231</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="25.75" spans="1:4">
-      <c r="A7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="40">
-        <v>1123940404</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="25.75" spans="1:4">
-      <c r="A8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="40">
-        <v>1140040830</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" ht="25.75" spans="1:4">
-      <c r="A9" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="40">
-        <v>1118664021</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" ht="25.75" spans="1:4">
-      <c r="A10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="40">
-        <v>1006491956</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="50.75" spans="1:4">
-      <c r="A11" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" ht="25.75" spans="1:4">
-      <c r="A12" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="40">
-        <v>1010432422</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:H47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="2" max="2" width="19.2818181818182" customWidth="1"/>
-    <col min="3" max="3" width="19.1363636363636" customWidth="1"/>
-    <col min="4" max="4" width="20.4272727272727" customWidth="1"/>
-    <col min="5" max="5" width="20.2818181818182" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="35">
-        <v>1140040830</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="35">
-        <v>1003846231</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="35">
-        <v>1220100184</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="35">
-        <v>1123940404</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="35">
-        <v>1099700773</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="35">
-        <v>1118664021</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="35">
-        <v>1006491956</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="35">
-        <v>1010432422</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-    </row>
-  </sheetData>
-  <sortState ref="B5:E13">
-    <sortCondition ref="D5"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2718,7 +1815,7 @@
     </row>
     <row r="3" ht="15.5" spans="1:1">
       <c r="A3" s="25" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
@@ -2731,21 +1828,21 @@
     </row>
     <row r="6" ht="15.25" spans="1:3">
       <c r="A6" s="26" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:3">
       <c r="A7" s="28" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C7" s="29">
         <v>1003111657</v>
@@ -2753,10 +1850,10 @@
     </row>
     <row r="8" ht="15.25" spans="1:3">
       <c r="A8" s="28" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C8" s="29">
         <v>1063853315</v>
@@ -2764,10 +1861,10 @@
     </row>
     <row r="9" ht="15.25" spans="1:3">
       <c r="A9" s="22" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C9" s="30">
         <v>1004065451</v>
@@ -2775,10 +1872,10 @@
     </row>
     <row r="10" ht="15.25" spans="1:3">
       <c r="A10" s="22" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C10" s="30">
         <v>1128562064</v>
@@ -2786,10 +1883,10 @@
     </row>
     <row r="11" ht="15.25" spans="1:3">
       <c r="A11" s="28" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C11" s="29">
         <v>1150177584</v>
@@ -2797,10 +1894,10 @@
     </row>
     <row r="12" ht="15.25" spans="1:3">
       <c r="A12" s="28" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C12" s="29">
         <v>1000663107</v>
@@ -2808,10 +1905,10 @@
     </row>
     <row r="13" ht="15.25" spans="1:3">
       <c r="A13" s="28" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C13" s="29">
         <v>1278825213</v>
@@ -2819,10 +1916,10 @@
     </row>
     <row r="14" ht="15.25" spans="1:3">
       <c r="A14" s="22" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C14" s="30">
         <v>1062098602</v>
@@ -2830,21 +1927,21 @@
     </row>
     <row r="15" ht="15.25" spans="1:3">
       <c r="A15" s="28" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:3">
       <c r="A16" s="22" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C16" s="30">
         <v>1155313770</v>
@@ -2852,10 +1949,10 @@
     </row>
     <row r="17" ht="15.25" spans="1:3">
       <c r="A17" s="22" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C17" s="30">
         <v>1021824170</v>
@@ -2863,10 +1960,10 @@
     </row>
     <row r="18" ht="15.25" spans="1:3">
       <c r="A18" s="28" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C18" s="29">
         <v>1158249339</v>
@@ -2874,10 +1971,10 @@
     </row>
     <row r="19" ht="15.25" spans="1:3">
       <c r="A19" s="22" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C19" s="30">
         <v>1111476774</v>
@@ -2885,10 +1982,10 @@
     </row>
     <row r="20" ht="15.25" spans="1:3">
       <c r="A20" s="22" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C20" s="30">
         <v>1004775419</v>
@@ -2896,10 +1993,10 @@
     </row>
     <row r="21" ht="15.25" spans="1:3">
       <c r="A21" s="28" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C21" s="29">
         <v>1115055059</v>
@@ -2908,7 +2005,7 @@
     <row r="22" ht="15.25" spans="1:3">
       <c r="A22" s="31"/>
       <c r="B22" s="30" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="C22" s="30">
         <v>1021661613</v>
@@ -2916,10 +2013,10 @@
     </row>
     <row r="23" ht="15.25" spans="1:3">
       <c r="A23" s="22" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C23" s="30">
         <v>1093161776</v>
@@ -2928,7 +2025,7 @@
     <row r="24" ht="15.25" spans="1:3">
       <c r="A24" s="31"/>
       <c r="B24" s="30" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C24" s="30">
         <v>1080214710</v>
@@ -2937,7 +2034,7 @@
     <row r="25" ht="15.25" spans="1:3">
       <c r="A25" s="31"/>
       <c r="B25" s="30" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C25" s="30">
         <v>1004742983</v>
@@ -2946,7 +2043,7 @@
     <row r="26" ht="15.25" spans="1:3">
       <c r="A26" s="31"/>
       <c r="B26" s="30" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C26" s="30">
         <v>1068068182</v>
@@ -2955,7 +2052,7 @@
     <row r="27" ht="15.25" spans="1:3">
       <c r="A27" s="31"/>
       <c r="B27" s="30" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C27" s="30">
         <v>1027610163</v>
@@ -2963,10 +2060,10 @@
     </row>
     <row r="28" ht="15.25" spans="1:3">
       <c r="A28" s="22" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C28" s="30">
         <v>1065353669</v>
@@ -2974,10 +2071,10 @@
     </row>
     <row r="29" ht="15.25" spans="1:3">
       <c r="A29" s="22" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C29" s="30">
         <v>1015843833</v>
@@ -2985,10 +2082,10 @@
     </row>
     <row r="30" ht="15.25" spans="1:3">
       <c r="A30" s="22" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C30" s="30">
         <v>1117915599</v>
@@ -2996,10 +2093,10 @@
     </row>
     <row r="31" ht="15.25" spans="1:3">
       <c r="A31" s="22" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C31" s="30">
         <v>1064620013</v>
@@ -3007,10 +2104,10 @@
     </row>
     <row r="32" ht="15.25" spans="1:3">
       <c r="A32" s="28" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C32" s="29">
         <v>1550014921</v>
@@ -3018,10 +2115,10 @@
     </row>
     <row r="33" ht="15.25" spans="1:3">
       <c r="A33" s="28" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C33" s="29">
         <v>1065673340</v>
@@ -3029,10 +2126,10 @@
     </row>
     <row r="34" ht="15.25" spans="1:3">
       <c r="A34" s="22" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="C34" s="30">
         <v>1143344843</v>
@@ -3040,10 +2137,10 @@
     </row>
     <row r="35" ht="15.25" spans="1:3">
       <c r="A35" s="22" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C35" s="30">
         <v>1158931963</v>
@@ -3051,10 +2148,10 @@
     </row>
     <row r="36" ht="15.25" spans="1:3">
       <c r="A36" s="32" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C36" s="30">
         <v>1007172746</v>
@@ -3063,7 +2160,7 @@
     <row r="37" ht="15.25" spans="1:3">
       <c r="A37" s="31"/>
       <c r="B37" s="30" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C37" s="30">
         <v>1129330355</v>
@@ -3072,7 +2169,7 @@
     <row r="38" ht="15.25" spans="1:3">
       <c r="A38" s="31"/>
       <c r="B38" s="30" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C38" s="33">
         <v>1277988623</v>
@@ -3084,12 +2181,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
@@ -3100,559 +2197,559 @@
   <sheetData>
     <row r="1" ht="25.75" spans="1:5">
       <c r="A1" s="19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="50.75" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B2" s="23">
         <v>1003111657</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
       <c r="A3" s="22" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B3" s="23">
         <v>1063853315</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" ht="50.75" spans="1:5">
       <c r="A4" s="22" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B4" s="23">
         <v>1004065451</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="50.75" spans="1:5">
       <c r="A5" s="22" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B5" s="23">
         <v>1128562064</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="50.75" spans="1:5">
       <c r="A6" s="22" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B6" s="23">
         <v>1150177584</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:5">
       <c r="A7" s="22" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B7" s="23">
         <v>1000663107</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="50.75" spans="1:5">
       <c r="A8" s="22" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B8" s="23">
         <v>1278825213</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="50.75" spans="1:5">
       <c r="A9" s="22" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B9" s="23">
         <v>1062098602</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="50.75" spans="1:5">
       <c r="A10" s="22" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="50.75" spans="1:5">
       <c r="A11" s="22" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B11" s="23">
         <v>1155313770</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:5">
       <c r="A12" s="22" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B12" s="23">
         <v>1021824170</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B13" s="23">
         <v>1158249339</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="50.75" spans="1:5">
       <c r="A14" s="22" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B14" s="23">
         <v>1111476774</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="50.75" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B15" s="23">
         <v>1004775419</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="50.75" spans="1:5">
       <c r="A16" s="22" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B16" s="23">
         <v>1115055059</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="50.75" spans="1:5">
       <c r="A17" s="22" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B17" s="23">
         <v>1021661613</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="50.75" spans="1:5">
       <c r="A18" s="22" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B18" s="23">
         <v>1093161776</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
     <row r="19" ht="50.75" spans="1:5">
       <c r="A19" s="22" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B19" s="23">
         <v>1080214710</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="50.75" spans="1:5">
       <c r="A20" s="22" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B20" s="23">
         <v>1004742983</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="50.75" spans="1:5">
       <c r="A21" s="22" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B21" s="23">
         <v>1068068182</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="50.75" spans="1:5">
       <c r="A22" s="22" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B22" s="23">
         <v>1027610163</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" ht="50.75" spans="1:5">
       <c r="A23" s="22" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B23" s="23">
         <v>1065353669</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" ht="50.75" spans="1:5">
       <c r="A24" s="22" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B24" s="23">
         <v>1015843833</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" ht="50.75" spans="1:5">
       <c r="A25" s="22" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="B25" s="23">
         <v>1117915599</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" ht="50.75" spans="1:5">
       <c r="A26" s="22" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B26" s="23">
         <v>1064620013</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:5">
       <c r="A27" s="22" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B27" s="23">
         <v>1550014921</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" ht="75.75" spans="1:5">
       <c r="A28" s="22" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B28" s="23">
         <v>1065673340</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" ht="50.75" spans="1:5">
       <c r="A29" s="22" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B29" s="23">
         <v>1143344843</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" ht="50.75" spans="1:5">
       <c r="A30" s="22" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B30" s="23">
         <v>1158931963</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="50.75" spans="1:5">
       <c r="A31" s="22" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B31" s="23">
         <v>1007172746</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="50.75" spans="1:5">
       <c r="A32" s="22" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="B32" s="23">
         <v>1129330355</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="50.75" spans="1:5">
       <c r="A33" s="22" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B33" s="23">
         <v>1277988623</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3661,12 +2758,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B77" sqref="B77:C78"/>
     </sheetView>
   </sheetViews>
@@ -3691,7 +2788,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="16" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="3:9">
@@ -3699,35 +2796,35 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="16" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -3743,16 +2840,16 @@
         <v>1115055059</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3766,16 +2863,16 @@
         <v>1111476774</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3789,16 +2886,16 @@
         <v>1000663107</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3812,16 +2909,16 @@
         <v>1021824170</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3835,16 +2932,16 @@
         <v>1158249339</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3858,16 +2955,16 @@
         <v>1080214710</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3881,16 +2978,16 @@
         <v>1550014921</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3904,16 +3001,16 @@
         <v>1129330355</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3927,16 +3024,16 @@
         <v>1063853315</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3950,16 +3047,16 @@
         <v>1062098602</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3973,16 +3070,16 @@
         <v>1064620013</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3996,16 +3093,16 @@
         <v>1277988623</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4016,19 +3113,19 @@
         <v>0.75</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4042,16 +3139,16 @@
         <v>1128562064</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4065,16 +3162,16 @@
         <v>1003111657</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4088,16 +3185,16 @@
         <v>1278825213</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4111,16 +3208,16 @@
         <v>1155313770</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4134,16 +3231,16 @@
         <v>1143344843</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4157,16 +3254,16 @@
         <v>1015843833</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4180,16 +3277,16 @@
         <v>1117915599</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4203,16 +3300,16 @@
         <v>1158931963</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4226,16 +3323,16 @@
         <v>1027610163</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4249,16 +3346,16 @@
         <v>1007172746</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4272,16 +3369,16 @@
         <v>1068338443</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4295,16 +3392,16 @@
         <v>1150177584</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:7">
@@ -4318,16 +3415,16 @@
         <v>1093161776</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:11">
@@ -4341,22 +3438,22 @@
         <v>1027486316</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="K30" s="17">
         <v>1068338443</v>
@@ -4373,16 +3470,16 @@
         <v>1068068182</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4396,16 +3493,16 @@
         <v>1004065451</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4419,16 +3516,16 @@
         <v>1021661613</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4442,16 +3539,16 @@
         <v>1065353669</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4465,10 +3562,10 @@
         <v>1003111657</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -4484,10 +3581,10 @@
         <v>1004775419</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -4503,10 +3600,10 @@
         <v>1093161776</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -4522,10 +3619,10 @@
         <v>1004742983</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4541,10 +3638,10 @@
         <v>1068068182</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -4560,10 +3657,10 @@
         <v>1065673340</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4646,19 +3743,19 @@
         <v>10333951</v>
       </c>
       <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
         <v>122</v>
       </c>
-      <c r="D53" t="s">
-        <v>170</v>
-      </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="F53">
         <v>1063853315</v>
       </c>
       <c r="G53" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -4666,19 +3763,19 @@
         <v>10334018</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="F54">
         <v>1004065451</v>
       </c>
       <c r="G54" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="2:7">
@@ -4686,19 +3783,19 @@
         <v>10334020</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="F55">
         <v>1128562064</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -4706,19 +3803,19 @@
         <v>10334023</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="F56">
         <v>1278825213</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -4726,19 +3823,19 @@
         <v>10334032</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="F57">
         <v>1062098602</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -4746,19 +3843,19 @@
         <v>10333953</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="2:7">
@@ -4766,19 +3863,19 @@
         <v>10333976</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="F59">
         <v>1021824170</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -4786,19 +3883,19 @@
         <v>10333964</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="F60">
         <v>1115055059</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -4806,19 +3903,19 @@
         <v>10333956</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="F61">
         <v>1021661613</v>
       </c>
       <c r="G61" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="2:7">
@@ -4826,19 +3923,19 @@
         <v>10333952</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="F62">
         <v>1015843833</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -4846,19 +3943,19 @@
         <v>10333947</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="F63">
         <v>1117915599</v>
       </c>
       <c r="G63" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -4866,19 +3963,19 @@
         <v>10334025</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E64" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="F64">
         <v>1143344843</v>
       </c>
       <c r="G64" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:7">
@@ -4886,19 +3983,19 @@
         <v>10334024</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="F65">
         <v>1129330355</v>
       </c>
       <c r="G65" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="2:7">
@@ -4906,19 +4003,19 @@
         <v>10333965</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="F66">
         <v>1068338443</v>
       </c>
       <c r="G66" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="2:7">
@@ -4926,19 +4023,19 @@
         <v>10333966</v>
       </c>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="F67">
         <v>1027486316</v>
       </c>
       <c r="G67" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -4946,19 +4043,19 @@
         <v>10333942</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F68">
         <v>1093161776</v>
       </c>
       <c r="G68" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="2:7">
@@ -4966,19 +4063,19 @@
         <v>10333938</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F69">
         <v>1000663107</v>
       </c>
       <c r="G69" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="2:7">
@@ -4986,19 +4083,19 @@
         <v>10334027</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F70">
         <v>1158249339</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="2:7">
@@ -5006,19 +4103,19 @@
         <v>10334031</v>
       </c>
       <c r="C71" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="E71" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="F71">
         <v>1068068182</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:7">
@@ -5026,19 +4123,19 @@
         <v>10333974</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="F72">
         <v>1065353669</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="2:7">
@@ -5046,19 +4143,19 @@
         <v>10333973</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="F73">
         <v>1065673340</v>
       </c>
       <c r="G73" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:7">
@@ -5066,19 +4163,19 @@
         <v>10334057</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="F74">
         <v>1064620013</v>
       </c>
       <c r="G74" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -5086,7 +4183,7 @@
         <v>10334031</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -5094,7 +4191,7 @@
         <v>10333973</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5113,7 +4210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R24"/>
@@ -5137,43 +4234,43 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="R1" s="1"/>
     </row>
@@ -5183,46 +4280,46 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -5230,16 +4327,16 @@
         <v>10333951</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>1063853315</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5">
@@ -5261,11 +4358,11 @@
         <v>0.75</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="5">
@@ -5280,16 +4377,16 @@
         <v>10334018</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>1004065451</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5">
@@ -5311,11 +4408,11 @@
         <v>0.75</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="5">
@@ -5330,16 +4427,16 @@
         <v>10334020</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>1128562064</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5">
@@ -5361,11 +4458,11 @@
         <v>0.75</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="5">
@@ -5380,16 +4477,16 @@
         <v>10334023</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>1278825213</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5">
@@ -5411,11 +4508,11 @@
         <v>0.75</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="5">
@@ -5430,16 +4527,16 @@
         <v>10334032</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>1062098602</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5">
@@ -5461,11 +4558,11 @@
         <v>0.75</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="5">
@@ -5480,16 +4577,16 @@
         <v>10333953</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5">
@@ -5511,11 +4608,11 @@
         <v>0.75</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="5">
@@ -5530,16 +4627,16 @@
         <v>10333976</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3">
         <v>1021824170</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5">
@@ -5561,11 +4658,11 @@
         <v>0.75</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="5">
@@ -5580,16 +4677,16 @@
         <v>10333964</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3">
         <v>1115055059</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5">
@@ -5611,11 +4708,11 @@
         <v>0.75</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="5">
@@ -5630,16 +4727,16 @@
         <v>10333956</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3">
         <v>1021661613</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="5">
@@ -5661,11 +4758,11 @@
         <v>0.75</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="5">
@@ -5680,16 +4777,16 @@
         <v>10333952</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3">
         <v>1015843833</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5">
@@ -5711,11 +4808,11 @@
         <v>0.75</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="5">
@@ -5730,16 +4827,16 @@
         <v>10333947</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3">
         <v>1117915599</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="5">
@@ -5761,11 +4858,11 @@
         <v>0.75</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="5">
@@ -5780,16 +4877,16 @@
         <v>10334025</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3">
         <v>1143344843</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5">
@@ -5811,11 +4908,11 @@
         <v>0.75</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="5">
@@ -5830,16 +4927,16 @@
         <v>10334024</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3">
         <v>1129330355</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5">
@@ -5861,11 +4958,11 @@
         <v>0.75</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="5">
@@ -5880,16 +4977,16 @@
         <v>10333965</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3">
         <v>1068338443</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5">
@@ -5911,11 +5008,11 @@
         <v>0.75</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="5">
@@ -5930,16 +5027,16 @@
         <v>10333966</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="C17" s="3">
         <v>1027486316</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5">
@@ -5961,11 +5058,11 @@
         <v>0.75</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="5">
@@ -5980,16 +5077,16 @@
         <v>10333942</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3">
         <v>1093161776</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5">
@@ -6011,11 +5108,11 @@
         <v>0.75</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="5">
@@ -6030,16 +5127,16 @@
         <v>10333938</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>1000663107</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="5">
@@ -6061,11 +5158,11 @@
         <v>0.75</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="5">
@@ -6080,16 +5177,16 @@
         <v>10334027</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3">
         <v>1158249339</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="5">
@@ -6111,11 +5208,11 @@
         <v>0.75</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="5">
@@ -6130,16 +5227,16 @@
         <v>10334031</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3">
         <v>1068068182</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5">
@@ -6161,11 +5258,11 @@
         <v>0.75</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="5">
@@ -6180,16 +5277,16 @@
         <v>10333974</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3">
         <v>1065353669</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="5">
@@ -6211,11 +5308,11 @@
         <v>0.75</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="5">
@@ -6230,16 +5327,16 @@
         <v>10333973</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3">
         <v>1065673340</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="5">
@@ -6261,11 +5358,11 @@
         <v>0.75</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="5">
@@ -6280,16 +5377,16 @@
         <v>10334057</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3">
         <v>1064620013</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5">
@@ -6311,11 +5408,11 @@
         <v>0.75</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="5">
